--- a/biology/Zoologie/Alcool_de_serpent/Alcool_de_serpent.xlsx
+++ b/biology/Zoologie/Alcool_de_serpent/Alcool_de_serpent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin de serpent (rượu rắn en vietnamien) est une boisson alcoolisée dans laquelle on fait macérer un ensemble de serpents venimeux placés dans la bouteille. Cet alcool est né au Vietnam et peut être trouvé en Asie du Sud. Les serpents, de préférence venimeux, ne sont généralement pas conservés pour leur viande, mais pour leur venin dissous dans la liqueur ; toutefois, le venin de serpent est dénaturé par l'éthanol, ses protéines sont dépliées et donc inactivées.
 </t>
@@ -511,7 +523,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe deux variétés d'alcool de serpent :
 Fortement imprégné : un serpent venimeux de grande taille peut être placé dans un pot de verre de vin de riz, souvent avec beaucoup de petits serpents, des tortues, des insectes ou oiseaux, et laissé à infuser pendant de nombreux mois. L'alcool obtenu peut être bu dans de petites tasses.
@@ -543,12 +557,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alcool de serpent est né au Vietnam Modèle:Ref.needed et s'est répandu dans la région de l'Asie du Sud et dans le Sud de la Chine. 
 Les serpents sont largement considérés comme possédant des qualités médicinales, pouvant guérir par exemple de l'hypermétropie à la perte de cheveux. 
 Toutefois, il est illégal d'importer de l'alcool de serpent dans de nombreux pays car des serpents utilisés sont des espèces en voie de disparition. 
-Une boisson similaire fabriquée en Chine est faite avec un lézard venimeux plutôt qu'un serpent[1].
+Une boisson similaire fabriquée en Chine est faite avec un lézard venimeux plutôt qu'un serpent.
 Habushu est le nom d'un boisson alcoolisée fait avec une espèce endémique des îles japonaises de Ryūkyū, la vipère habu Protobothrops flavoviridis.
 </t>
         </is>
